--- a/ChoSangJun/종설1 계획(조상준).xlsx
+++ b/ChoSangJun/종설1 계획(조상준).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DFF202-6818-40FA-9F1D-86C823D10BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E1E4B-3BFC-4AF4-8A81-66B7476B9D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2760" windowWidth="24405" windowHeight="15345" tabRatio="788" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="3045" windowWidth="24405" windowHeight="15345" tabRatio="788" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -1230,6 +1230,12 @@
     <xf numFmtId="178" fontId="14" fillId="49" borderId="0" xfId="16" applyFill="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="16" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="17" applyFont="1" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1266,56 +1272,50 @@
     <xf numFmtId="178" fontId="32" fillId="49" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="16" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="178" fontId="31" fillId="55" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="17" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="55" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="34" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="17" applyFont="1" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="32" fillId="54" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="32" fillId="54" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="32" fillId="54" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="53" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="53" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="53" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="52" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="52" borderId="0" xfId="17" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="52" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="50" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="50" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="50" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="31" fillId="51" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="14" fillId="51" borderId="9" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="51" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1926,10 +1926,10 @@
         <v>토요일</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="84"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3"/>
@@ -2139,10 +2139,10 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2151,10 +2151,10 @@
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2449,19 +2449,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2740,19 +2740,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3031,19 +3031,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3179,13 +3179,13 @@
     <row r="4" spans="1:8" ht="57.95" customHeight="1">
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5"/>
@@ -3215,13 +3215,13 @@
     <row r="6" spans="1:8" ht="57.95" customHeight="1">
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7"/>
@@ -3251,13 +3251,13 @@
     <row r="8" spans="1:8" ht="57.95" customHeight="1">
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9"/>
@@ -3287,13 +3287,13 @@
     <row r="10" spans="1:8" ht="57.95" customHeight="1">
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11"/>
@@ -3323,13 +3323,13 @@
     <row r="12" spans="1:8" ht="57.95" customHeight="1">
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
     </row>
     <row r="13" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13"/>
@@ -3343,21 +3343,21 @@
       <c r="D13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1">
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3636,19 +3636,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3928,19 +3928,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4220,19 +4220,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4512,19 +4512,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4726,10 +4726,10 @@
       <c r="D8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="60">
@@ -4756,15 +4756,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="57.95" customHeight="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="97" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -4791,15 +4791,15 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="57.95" customHeight="1">
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="99" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -4812,19 +4812,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4879,7 +4879,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4961,13 +4961,13 @@
     <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
       <c r="B5" s="60">
@@ -4999,10 +4999,10 @@
       <c r="D6" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1">
       <c r="B7" s="61">
@@ -5034,10 +5034,10 @@
       <c r="D8" s="103" t="s" ph="1">
         <v>16</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="60">
@@ -5069,10 +5069,10 @@
       <c r="D10" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -5104,10 +5104,10 @@
       <c r="D12" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -5120,21 +5120,21 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5419,19 +5419,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5474,24 +5474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5712,25 +5694,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8A8BCD-244E-41CF-AC5A-813C9AEC7F32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5747,4 +5729,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>